--- a/new_popgen_2016/documentation/LD_analyses.xlsx
+++ b/new_popgen_2016/documentation/LD_analyses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27226"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="440" windowWidth="23740" windowHeight="12580" tabRatio="992"/>
+    <workbookView xWindow="1180" yWindow="-640" windowWidth="23740" windowHeight="12580" tabRatio="992"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="117">
   <si>
     <t>SHARE ($MCLAB)</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>LD</t>
-  </si>
-  <si>
-    <t>Calculate LD</t>
   </si>
   <si>
     <t>LD by chromosome</t>
@@ -246,9 +243,6 @@
     <t>Calculate LD on the windows</t>
   </si>
   <si>
-    <t>run_plink_ld_windowed.qsub</t>
-  </si>
-  <si>
     <t>Average by window</t>
   </si>
   <si>
@@ -282,12 +276,6 @@
     <t>I needed to manipulate the data a bit before I could plot it. I pull it into SAS and merge the LD and TD file together</t>
   </si>
   <si>
-    <t>sas</t>
-  </si>
-  <si>
-    <t>compare_ld_td.sas</t>
-  </si>
-  <si>
     <t>Plot LD vs TD`</t>
   </si>
   <si>
@@ -295,151 +283,6 @@
   </si>
   <si>
     <t>plot_ld_vs_td_all_chroms.R</t>
-  </si>
-  <si>
-    <t>Chromosome 2L</t>
-  </si>
-  <si>
-    <t>Split 2L</t>
-  </si>
-  <si>
-    <t>Split 2L into 10kb windows
-2L has 2,358 windows total. 
-116 empty windows
-2,242 windows with variants</t>
-  </si>
-  <si>
-    <t>Some windows have 0 variants:
-955, 1787, 1964-1968, 2086, 2098-2100, 2155, 2173-2177, 2181, 2184-2186, 2191, 2192, 2195-2197, 2201-2205, 2210, 2221, 2223, 2224, 2228-2234, 2236, 2245, 2247-2249, 2253-2259, 2261-2275, 2278-2283, 2296-2300, 2303-2305, 2307, 2308, 2310, 2314, 2317, 2323-2331, 2333, 2335-2337, 2340, 2341, 2349-2353</t>
-  </si>
-  <si>
-    <t>empty windows are listed in file : 
-../Haplotype_Caller_merged/split_vcf/chr2R/empty_windows.txt</t>
-  </si>
-  <si>
-    <t>Get list of empty files:
-awk '{ if ($2 == 0) print $0 }' widowList.tsv | cut -f1 &gt; empty_windows.txt</t>
-  </si>
-  <si>
-    <t>Calculate LD on the windows of 10kb.</t>
-  </si>
-  <si>
-    <t>There will be 2,242 LD results files.</t>
-  </si>
-  <si>
-    <t>Calculate the average LD of each 10kb window.</t>
-  </si>
-  <si>
-    <t>Cd $FOLDER
-ls *.ld | while read filename ; do awk '{sum+=$7} END {print "Averge for "FILENAME" = ",sum/NR}' $filename ; done &gt; chrom2L_ld_window_avg.txt</t>
-  </si>
-  <si>
-    <t>Calculate in 10kb windows...one value per. Make the window size on the command line equal to the window size.</t>
-  </si>
-  <si>
-    <t>There are 2,242 windows with data, so there will be this many TsD files.</t>
-  </si>
-  <si>
-    <t>awk 'FNR==2{print $0 &gt; "output_test.txt"}' dsim_10kb_chrom2L_{0..2358}.Tajima.D</t>
-  </si>
-  <si>
-    <t>Plot</t>
-  </si>
-  <si>
-    <t>Chromosome 2R</t>
-  </si>
-  <si>
-    <t>Split 2R</t>
-  </si>
-  <si>
-    <t>Split 2R into 10kb windows 
-2R has 2,159 windows total. 
-113 empty windows</t>
-  </si>
-  <si>
-    <t>There will be 2,046 LD results files.</t>
-  </si>
-  <si>
-    <t>Cd $FOLDER
-ls *.ld | while read filename ; do awk '{sum+=$7} END {print "Averge,"FILENAME" = ",sum/NR}' $filename ; done &gt; chrom2R_ld_window_avg.txt</t>
-  </si>
-  <si>
-    <t>There are 2046 windows with data, so there will be this many TsD files.</t>
-  </si>
-  <si>
-    <t>Chromosome 3L</t>
-  </si>
-  <si>
-    <t>Split 3L</t>
-  </si>
-  <si>
-    <t>Split 3L into 10kb windows 
-3L has 2426 windows total. 
-103 empty windows
-2,323 total windows with variants</t>
-  </si>
-  <si>
-    <t>There will be 2,323 LD results files.</t>
-  </si>
-  <si>
-    <t>Cd $FOLDER
-ls *.ld | while read filename ; do awk '{sum+=$7} END {print "Average,"FILENAME" = ",sum/NR}' $filename ; done &gt; chrom3L_ld_window_avg.txt</t>
-  </si>
-  <si>
-    <t>There are 2323 windows with data, so there will be this many TsD files.</t>
-  </si>
-  <si>
-    <t>awk 'FNR==2{print $0 &gt; "all_chrom3L_tajimaD_10kb.Tajima.D"}' dsim_10kb_chrom3L_{0..2358}.Tajima.D</t>
-  </si>
-  <si>
-    <t>Chromosome 3R</t>
-  </si>
-  <si>
-    <t>Split 3R</t>
-  </si>
-  <si>
-    <t>Split into 10kb windows
-Chromosome 3 has 2,717 windows
-7 empty windows
-2,710 total windows with variants</t>
-  </si>
-  <si>
-    <t>There will be 2,710 LD results files.</t>
-  </si>
-  <si>
-    <t>Cd $FOLDER
-ls *.ld | while read filename ; do awk '{sum+=$7} END {print "Averge,"FILENAME" = ",sum/NR}' $filename ; done &gt; chrom3R_ld_window_avg.txt</t>
-  </si>
-  <si>
-    <t>There are 2710 windows with data, so there will be this many TsD files.</t>
-  </si>
-  <si>
-    <t>awk 'FNR==2{print $0 &gt; "all_chrom3R_tajimaD_10kb.Tajima.D"}' dsim_10kb_chrom3R_{0..2717}.Tajima.D</t>
-  </si>
-  <si>
-    <t>Chromosome X</t>
-  </si>
-  <si>
-    <t>Split X</t>
-  </si>
-  <si>
-    <t>Split into 10kb windows
-Chromosome X has 2,085 windows
-10 empty windows
-2,075 total windows with variants</t>
-  </si>
-  <si>
-    <t>There will be 2,075 LD results files.</t>
-  </si>
-  <si>
-    <t>Cd $FOLDER
-ls *.ld | while read filename ; do awk '{sum+=$7} END {print "Averge,"FILENAME"”,sum/NR}' $filename ; done &gt; chromX_ld_window_avg.txt</t>
-  </si>
-  <si>
-    <t>There are 2075 windows with data, so there will be this many TsD files.</t>
-  </si>
-  <si>
-    <t>awk 'FNR==2{print $0 &gt; "output_test.txt"}' dsim_10kb_chromX_{0..2085}.Tajima.D</t>
   </si>
   <si>
     <r>
@@ -534,165 +377,12 @@
     <t>$HPC/vcftools_output/tajima_d_split/chr4/all_chrom4_tajimaD_10kb.Tajima.D</t>
   </si>
   <si>
-    <t>$HPC/Haplotype_Caller_merged/split_vcf/chr2L/chrom_2L/*.vcf
-…/widowList.tsv
-…/LOGS</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/split_vcf/chr2L/chrom_2L/*.vcf</t>
-  </si>
-  <si>
-    <t>$HPC/plink/split_vcf_ld/chrom2L/dsim_10kb_chrom2L_#_ld.ld</t>
-  </si>
-  <si>
-    <t>$HPC/vcftools_output/tajima_d_split/chr2L/dsim_10kb_chrom2L_#.Tajima.D</t>
-  </si>
-  <si>
-    <t>$HPC/vcftools_output/tajima_d_split/chr2L/all_chrom2L_tajimaD_10kb.Tajima.D</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/split_vcf/chr2R/chrom_2R/*.vcf
-…/widowList.tsv
-…/LOGS</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/split_vcf/chr2R/chrom_2R/*.vcf</t>
-  </si>
-  <si>
-    <t>$HPC/plink/split_vcf_ld/chrom2R/dsim_10kb_chrom2R_#_ld.ld</t>
-  </si>
-  <si>
-    <t>$HPC/vcftools_output/tajima_d_split/chr2R/dsim_10kb_chrom2R_#.Tajima.D</t>
-  </si>
-  <si>
-    <t>$HPC/vcftools_output/tajima_d_split/chr2R/all_chrom2R_tajimaD_10kb.Tajima.D</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/split_vcf/chr3L/chrom_3L/*.vcf
-…/widowList.tsv
-…/LOGS</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/split_vcf/chr3L/chrom_3L/*.vcf</t>
-  </si>
-  <si>
-    <t>$HPC/plink/split_vcf_ld/chrom3L/dsim_10kb_chrom3L_#_ld.ld</t>
-  </si>
-  <si>
-    <t>$HPC/vcftools_output/tajima_d_split/chr3L/dsim_10kb_chrom3L_#.Tajima.D</t>
-  </si>
-  <si>
-    <t>$HPC/vcftools_output/tajima_d_split/chr3L/all_chrom3L_tajimaD_10kb.Tajima.D</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/split_vcf/chr3R/chrom_3R/*.vcf
-…/widowList.tsv
-…/LOGS</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/split_vcf/chr3R/chrom_3R/*.vcf</t>
-  </si>
-  <si>
-    <t>$HPC/plink/split_vcf_ld/chrom3R/dsim_10kb_chrom3R_#_ld.ld</t>
-  </si>
-  <si>
-    <t>$HPC/vcftools_output/tajima_d_split/chr3R/dsim_10kb_chrom3R_#.Tajima.D</t>
-  </si>
-  <si>
-    <t>$HPC/vcftools_output/tajima_d_split/chr3R/all_chrom3R_tajimaD_10kb.Tajima.D</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/split_vcf/chrX/chrom_X/*.vcf
-…/widowList.tsv
-…/LOGS</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/split_vcf/chrX/chrom_X/*.vcf</t>
-  </si>
-  <si>
-    <t>$HPC/plink/split_vcf_ld/chromX/dsim_10kb_chromX_#_ld.ld</t>
-  </si>
-  <si>
-    <t>$HPC/vcftools_output/tajima_d_split/chrX/dsim_10kb_chromX_#.Tajima.D</t>
-  </si>
-  <si>
-    <t>$HPC/vcftools_output/tajima_d_split/chrX/all_chromX_tajimaD_10kb.Tajima.D</t>
-  </si>
-  <si>
     <t>$MCLAB/plots/ld_vs_td/chr4_td_vskd_10kb.pdf</t>
   </si>
   <si>
     <t>!MCLAB/output/ld_and_D/chr4_ld_and_td.txt</t>
   </si>
   <si>
-    <t>NOTE: ALL PATHS FOR CHROMOSOME 4 ARE CORRECT. THESE ARE THE LOCATIONS FOR ALL CHROMOSOMES</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/filter_10permiss_nolab_nomel_chr2L.recode.vcf
-$HPC/design_file/windowing_chr_2L_design.csv</t>
-  </si>
-  <si>
-    <t>$HPC/plink/split_vcf_ld/chrom_2L_ld_window_avg.txt</t>
-  </si>
-  <si>
-    <t>$MCLAB/output/ld_and_D/chr2L_ld_and_td.txt</t>
-  </si>
-  <si>
-    <t>$MCLAB/plots/ld_vs_td/chr2L_td_vs_ld_10kb.pdf</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/filter_10permiss_nolab_nomel_chr2R.recode.vcf
-$HPC/design_file/windowing_chr_2R_design.csv</t>
-  </si>
-  <si>
-    <t>$HPC/plink/split_vcf_ld/chrom_2R_ld_window_avg.txt</t>
-  </si>
-  <si>
-    <t>$MCLAB/output/ld_and_D/chr2R_ld_and_td.txt</t>
-  </si>
-  <si>
-    <t>$MCLAB/plots/ld_vs_td/chr2R_td_vs_ld_10kb.pdf</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/filter_10permiss_nolab_nomel_chr3L.recode.vcf
-$HPC/design_file/windowing_chr_3L_design.csv</t>
-  </si>
-  <si>
-    <t>$HPC/plink/split_vcf_ld/chrom_3L_ld_window_avg.txt</t>
-  </si>
-  <si>
-    <t>$MCLAB/output/ld_and_D/chr3L_ld_and_td.txt</t>
-  </si>
-  <si>
-    <t>$MCLAB/plots/ld_vs_td/chr3L_td_vs_ld_10kb.pdf</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/filter_10permiss_nolab_nomel_chr3R.recode.vcf
-$HPC/design_file/windowing_chr_3R_design.csv</t>
-  </si>
-  <si>
-    <t>$HPC/plink/split_vcf_ld/chrom_3R_ld_window_avg.txt</t>
-  </si>
-  <si>
-    <t>!MCLAB/output/ld_and_D/home/fnew/dsim/vcf_split_td_ld/chr3R_ld_and_td.txt</t>
-  </si>
-  <si>
-    <t>$MCLAB/plots/ld_vs_td/chr3R_td_vs_ld_10kb.pdf</t>
-  </si>
-  <si>
-    <t>$HPC/Haplotype_Caller_merged/filter_10permiss_nolab_nomel_chrX.recode.vcf
-$HPC/design_file/windowing_chr_X_design.csv</t>
-  </si>
-  <si>
-    <t>$HPC/plink/split_vcf_ld/chrom_X_ld_window_avg.txt</t>
-  </si>
-  <si>
-    <t>!MCLAB/output/ld_and_D/chrX_ld_and_td.txt</t>
-  </si>
-  <si>
-    <t>$MCLAB/plots/ld_vs_td/chrX_td_vs_ld_10kb.pdf</t>
-  </si>
-  <si>
     <t>Split the VCF into chromosomes: the overall file is too big, needs to be split into chromosomes</t>
   </si>
   <si>
@@ -711,9 +401,6 @@
     <t>Filter the LD results for low and high frequency alleles (MAF 0.05 or 0.95). This is done on the command line.</t>
   </si>
   <si>
-    <t>I will have these windows in 1kb and 100kb, too. I will calculate LD on them and save that output.</t>
-  </si>
-  <si>
     <t>Plink –vcf filter_10permiss_nolab_nomel.recode.vcf –r2 –ld-window-r2 0 --ld-window 1000 --ld-window-kb 10 –allow-extra-chr --out chr#_ld.ld</t>
   </si>
   <si>
@@ -727,6 +414,12 @@
   </si>
   <si>
     <t xml:space="preserve">Plotting LD decay plots in R. Using different axes. Output as png, the plots are enormous otherwise. Log scale </t>
+  </si>
+  <si>
+    <t>run_plink_ld_windowed.qsub       Plink –vcf filter_10permiss_nolab_nomel.recode.vcf –r2 –ld-window-r2 0 --ld-window 1000 --ld-window-kb 10 –allow-extra-chr --out chr#_ld.ld</t>
+  </si>
+  <si>
+    <t>NOTE: ALL PATHS FOR CHROMOSOME 4 ARE CORRECT. THESE ARE THE LOCATIONS FOR ALL CHROMOSOMES. These steps reflect the steps done on all chromosomes.</t>
   </si>
 </sst>
 </file>
@@ -802,8 +495,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -837,19 +534,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1247,10 +948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMK92"/>
+  <dimension ref="A1:AMK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="88" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -1270,7 +971,7 @@
   <sheetData>
     <row r="1" spans="1:1024" ht="96.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:1024" ht="34">
@@ -3391,28 +3092,28 @@
     <row r="14" spans="1:1024" ht="125" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="2" t="s">
-        <v>196</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>195</v>
+        <v>104</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
@@ -4433,28 +4134,28 @@
     <row r="15" spans="1:1024" ht="234" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="F15" s="2" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>203</v>
+        <v>111</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>198</v>
+        <v>107</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
@@ -5475,16 +5176,16 @@
     <row r="16" spans="1:1024" ht="96" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="2" t="s">
-        <v>199</v>
+        <v>108</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>200</v>
+        <v>109</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -6507,26 +6208,26 @@
     <row r="17" spans="1:1024" ht="119">
       <c r="A17" s="6"/>
       <c r="B17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="5" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -7546,62 +7247,62 @@
     </row>
     <row r="19" spans="1:1024" ht="267" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:1024" ht="135" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="6"/>
@@ -7611,28 +7312,28 @@
     <row r="21" spans="1:1024" ht="178" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -7641,7 +7342,7 @@
     <row r="22" spans="1:1024">
       <c r="A22" s="6"/>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -7682,56 +7383,53 @@
     </row>
     <row r="25" spans="1:1024" ht="85">
       <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="G25" s="2" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:1024" ht="254" customHeight="1">
       <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="F26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1024">
+      <c r="A29" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1024" ht="68">
-      <c r="A29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -7744,12 +7442,12 @@
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
     </row>
-    <row r="30" spans="1:1024" ht="85">
+    <row r="30" spans="1:1024" ht="119">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -7765,57 +7463,57 @@
     <row r="31" spans="1:1024" ht="102">
       <c r="A31" s="6"/>
       <c r="B31" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
     </row>
-    <row r="32" spans="1:1024" ht="51">
+    <row r="32" spans="1:1024" ht="119">
       <c r="A32" s="6"/>
       <c r="B32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6"/>
@@ -7825,28 +7523,28 @@
     <row r="33" spans="1:12" ht="119">
       <c r="A33" s="6"/>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
@@ -7869,28 +7567,28 @@
     <row r="35" spans="1:12" ht="85">
       <c r="A35" s="6"/>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
@@ -7900,23 +7598,23 @@
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6"/>
@@ -7939,23 +7637,23 @@
     <row r="38" spans="1:12" ht="68">
       <c r="A38" s="6"/>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6"/>
@@ -7965,23 +7663,23 @@
     <row r="39" spans="1:12" ht="34">
       <c r="A39" s="6"/>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
@@ -8002,1120 +7700,6 @@
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
     </row>
-    <row r="41" spans="1:12" ht="248" customHeight="1">
-      <c r="A41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="34">
-      <c r="A42" s="6"/>
-      <c r="B42" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J42" s="6"/>
-    </row>
-    <row r="43" spans="1:12" ht="119">
-      <c r="A43" s="6"/>
-      <c r="B43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="1:12" ht="85">
-      <c r="A45" s="6"/>
-      <c r="B45" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J45" s="6"/>
-    </row>
-    <row r="46" spans="1:12" ht="68">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J46" s="6"/>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-    </row>
-    <row r="48" spans="1:12" ht="68">
-      <c r="A48" s="6"/>
-      <c r="B48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-    </row>
-    <row r="49" spans="1:10" ht="34">
-      <c r="A49" s="6"/>
-      <c r="B49" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-    </row>
-    <row r="51" spans="1:10" ht="102">
-      <c r="A51" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="34">
-      <c r="A52" s="6"/>
-      <c r="B52" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J52" s="6"/>
-    </row>
-    <row r="53" spans="1:10" ht="119">
-      <c r="A53" s="6"/>
-      <c r="B53" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" ht="85">
-      <c r="A55" s="6"/>
-      <c r="B55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J55" s="6"/>
-    </row>
-    <row r="56" spans="1:10" ht="68">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J56" s="6"/>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-    </row>
-    <row r="58" spans="1:10" ht="68">
-      <c r="A58" s="6"/>
-      <c r="B58" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-    </row>
-    <row r="59" spans="1:10" ht="34">
-      <c r="A59" s="6"/>
-      <c r="B59" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-    </row>
-    <row r="62" spans="1:10" ht="136">
-      <c r="A62" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="34">
-      <c r="A63" s="6"/>
-      <c r="B63" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I63" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="1:10" ht="119">
-      <c r="A64" s="6"/>
-      <c r="B64" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-    </row>
-    <row r="66" spans="1:10" ht="85">
-      <c r="A66" s="6"/>
-      <c r="B66" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I66" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="J66" s="6"/>
-    </row>
-    <row r="67" spans="1:10" ht="85">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J67" s="6"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-    </row>
-    <row r="69" spans="1:10" ht="68">
-      <c r="A69" s="6"/>
-      <c r="B69" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E69" s="6"/>
-      <c r="F69" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-    </row>
-    <row r="70" spans="1:10" ht="34">
-      <c r="A70" s="6"/>
-      <c r="B70" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E70" s="6"/>
-      <c r="F70" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-    </row>
-    <row r="72" spans="1:10">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-    </row>
-    <row r="73" spans="1:10" ht="153">
-      <c r="A73" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="34">
-      <c r="A74" s="6"/>
-      <c r="B74" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="J74" s="6"/>
-    </row>
-    <row r="75" spans="1:10" ht="119">
-      <c r="A75" s="6"/>
-      <c r="B75" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-    </row>
-    <row r="77" spans="1:10" ht="85">
-      <c r="A77" s="6"/>
-      <c r="B77" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="J77" s="6"/>
-    </row>
-    <row r="78" spans="1:10" ht="85">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J78" s="6"/>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-    </row>
-    <row r="80" spans="1:10" ht="68">
-      <c r="A80" s="6"/>
-      <c r="B80" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E80" s="6"/>
-      <c r="F80" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-    </row>
-    <row r="81" spans="1:10" ht="51">
-      <c r="A81" s="6"/>
-      <c r="B81" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E81" s="6"/>
-      <c r="F81" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-    </row>
-    <row r="82" spans="1:10">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-    </row>
-    <row r="83" spans="1:10">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-    </row>
-    <row r="84" spans="1:10" ht="153">
-      <c r="A84" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="34">
-      <c r="A85" s="6"/>
-      <c r="B85" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I85" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="J85" s="6"/>
-    </row>
-    <row r="86" spans="1:10" ht="119">
-      <c r="A86" s="6"/>
-      <c r="B86" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-    </row>
-    <row r="87" spans="1:10">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-    </row>
-    <row r="88" spans="1:10" ht="85">
-      <c r="A88" s="6"/>
-      <c r="B88" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J88" s="6"/>
-    </row>
-    <row r="89" spans="1:10" ht="68">
-      <c r="A89" s="6"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="F89" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="J89" s="6"/>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="6"/>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="J90" s="6"/>
-    </row>
-    <row r="91" spans="1:10" ht="68">
-      <c r="A91" s="6"/>
-      <c r="B91" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="J91" s="6"/>
-    </row>
-    <row r="92" spans="1:10" ht="34">
-      <c r="A92" s="6"/>
-      <c r="B92" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="J92" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967292" verticalDpi="4294967292"/>
